--- a/data/trans_bre/IP09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>32,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-25,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,66%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 18,49</t>
+          <t>-67,01; 75,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 27,55</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 26,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 28,33</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,89; 87,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 155,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 109,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,71; 84,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-25,15</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-69,96%</t>
+          <t>-16,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,31%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,61%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>-5,83%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-43,83; -3,79</t>
+          <t>-25,8; 18,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 15,84</t>
+          <t>-10,68; 27,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 27,4</t>
+          <t>-24,81; 26,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 28,92</t>
+          <t>-27,88; 28,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-93,04; -9,6</t>
+          <t>-64,89; 87,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 86,76</t>
+          <t>-29,42; 155,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 68,03</t>
+          <t>-46,37; 109,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 179,86</t>
+          <t>-54,71; 84,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>22,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,64</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,41</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>130,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 75,71</t>
+          <t>-9,65; 55,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-24,79; 22,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,99; 19,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-30,56; 28,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,4; 861,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,22; 83,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,15; 88,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,75; 195,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,51</t>
+          <t>-25,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,64</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>130,33%</t>
+          <t>-69,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>-20,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-32,8%</t>
+          <t>-11,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 55,19</t>
+          <t>-43,83; -3,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 22,6</t>
+          <t>-28,18; 15,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 19,42</t>
+          <t>-38,01; 27,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 28,8</t>
+          <t>-18,37; 28,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 861,25</t>
+          <t>-93,04; -9,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 83,2</t>
+          <t>-70,64; 86,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-79,15; 88,88</t>
+          <t>-59,98; 68,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,75; 195,96</t>
+          <t>-55,69; 179,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 75,71</t>
+          <t>-73,29; 75,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 40,81</t>
+          <t>-24,05; 36,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 24,31</t>
+          <t>-43,52; 24,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 44,22</t>
+          <t>-38,27; 45,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 49,94</t>
+          <t>-17,33; 54,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 414,71</t>
+          <t>-100,0; 472,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,88; 73,84</t>
+          <t>-67,77; 70,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,05; 165,36</t>
+          <t>-63,07; 181,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 682,74</t>
+          <t>-42,32; 657,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 18,49</t>
+          <t>-28,33; 16,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 27,55</t>
+          <t>-11,29; 29,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 26,15</t>
+          <t>-25,14; 25,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 28,33</t>
+          <t>-26,93; 28,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,89; 87,04</t>
+          <t>-67,87; 68,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 155,93</t>
+          <t>-29,72; 154,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 109,89</t>
+          <t>-47,33; 97,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,71; 84,32</t>
+          <t>-52,62; 98,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 55,19</t>
+          <t>-5,95; 55,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 22,6</t>
+          <t>-24,47; 21,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 19,42</t>
+          <t>-52,78; 18,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 28,8</t>
+          <t>-30,61; 30,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 861,25</t>
+          <t>-40,94; 849,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 83,2</t>
+          <t>-50,12; 76,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,15; 88,88</t>
+          <t>-78,32; 79,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,75; 195,96</t>
+          <t>-69,22; 203,1</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-43,83; -3,79</t>
+          <t>-45,12; -5,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 15,84</t>
+          <t>-26,5; 15,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 27,4</t>
+          <t>-38,99; 31,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 28,92</t>
+          <t>-20,55; 26,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-93,04; -9,6</t>
+          <t>-93,88; -12,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 86,76</t>
+          <t>-71,26; 74,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 68,03</t>
+          <t>-54,89; 83,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 179,86</t>
+          <t>-60,41; 171,05</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 5,29</t>
+          <t>-17,65; 6,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 11,57</t>
+          <t>-10,66; 12,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 10,05</t>
+          <t>-20,03; 11,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 19,04</t>
+          <t>-10,86; 19,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,18; 22,33</t>
+          <t>-53,39; 27,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 39,18</t>
+          <t>-27,3; 44,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 26,04</t>
+          <t>-38,4; 31,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 79,28</t>
+          <t>-29,16; 75,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 75,71</t>
+          <t>-67,01; 75,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 36,64</t>
+          <t>-20,91; 38,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 24,21</t>
+          <t>-42,81; 28,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 45,7</t>
+          <t>-37,81; 44,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 54,81</t>
+          <t>-15,44; 53,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 472,55</t>
+          <t>-100,0; 413,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,77; 70,87</t>
+          <t>-66,0; 89,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,07; 181,6</t>
+          <t>-60,38; 154,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 657,87</t>
+          <t>-38,72; 636,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 16,54</t>
+          <t>-28,05; 17,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 29,13</t>
+          <t>-10,72; 26,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 25,65</t>
+          <t>-27,07; 24,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 28,32</t>
+          <t>-27,2; 31,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,87; 68,15</t>
+          <t>-68,14; 70,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 154,53</t>
+          <t>-30,57; 151,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,33; 97,05</t>
+          <t>-50,97; 94,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,62; 98,86</t>
+          <t>-54,95; 115,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 55,85</t>
+          <t>-9,52; 53,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 21,74</t>
+          <t>-25,24; 21,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,78; 18,77</t>
+          <t>-50,15; 21,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 30,62</t>
+          <t>-29,62; 28,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 849,58</t>
+          <t>-48,78; 770,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 76,24</t>
+          <t>-52,79; 75,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,32; 79,39</t>
+          <t>-79,02; 79,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,22; 203,1</t>
+          <t>-66,96; 172,71</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-45,12; -5,18</t>
+          <t>-44,45; -5,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 15,07</t>
+          <t>-27,23; 15,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 31,27</t>
+          <t>-41,2; 30,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 26,44</t>
+          <t>-18,79; 30,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-93,88; -12,86</t>
+          <t>-93,01; -9,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,26; 74,24</t>
+          <t>-70,86; 89,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-54,89; 83,83</t>
+          <t>-61,52; 75,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 171,05</t>
+          <t>-55,59; 209,75</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 6,48</t>
+          <t>-17,14; 5,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 12,76</t>
+          <t>-10,04; 13,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 11,73</t>
+          <t>-21,27; 11,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 19,15</t>
+          <t>-10,18; 20,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 27,5</t>
+          <t>-51,84; 22,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 44,5</t>
+          <t>-25,94; 49,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 31,92</t>
+          <t>-39,97; 29,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 75,56</t>
+          <t>-26,93; 80,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,64</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-25,41</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>79,22%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 75,71</t>
+          <t>-20,57; 39,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-28,39; 32,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,21; 35,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-11,29; 49,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,9; 391,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,78; 132,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,87; 135,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,86; 921,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>-16,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,29%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>14,94%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 38,85</t>
+          <t>-25,8; 18,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 28,03</t>
+          <t>-10,68; 27,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 44,5</t>
+          <t>-24,81; 26,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 53,06</t>
+          <t>-22,77; 44,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 413,63</t>
+          <t>-64,89; 87,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,0; 89,82</t>
+          <t>-29,42; 155,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 154,29</t>
+          <t>-46,37; 109,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 636,1</t>
+          <t>-47,96; 169,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>22,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-15,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,66%</t>
+          <t>130,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-32,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 17,38</t>
+          <t>-9,65; 55,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 26,3</t>
+          <t>-24,79; 22,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 24,3</t>
+          <t>-50,99; 19,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 31,27</t>
+          <t>-29,91; 29,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,14; 70,12</t>
+          <t>-55,4; 861,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 151,36</t>
+          <t>-49,22; 83,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,97; 94,59</t>
+          <t>-79,15; 88,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,95; 115,55</t>
+          <t>-64,79; 193,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,51</t>
+          <t>-25,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,64</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>130,33%</t>
+          <t>-69,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>-20,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-32,8%</t>
+          <t>-11,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 53,04</t>
+          <t>-43,83; -3,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 21,87</t>
+          <t>-28,18; 15,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 21,9</t>
+          <t>-38,01; 27,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 28,29</t>
+          <t>-17,71; 30,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 770,89</t>
+          <t>-93,04; -9,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,79; 75,47</t>
+          <t>-70,64; 86,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,02; 79,73</t>
+          <t>-59,98; 68,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,96; 172,71</t>
+          <t>-52,17; 193,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-25,15</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-69,96%</t>
+          <t>-20,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,31%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,61%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-44,45; -5,63</t>
+          <t>-18,11; 5,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 15,44</t>
+          <t>-12,28; 11,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 30,27</t>
+          <t>-20,83; 10,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 30,65</t>
+          <t>-6,45; 29,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-93,01; -9,93</t>
+          <t>-54,18; 22,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 89,53</t>
+          <t>-30,34; 39,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-61,52; 75,01</t>
+          <t>-39,86; 26,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 209,75</t>
+          <t>-21,14; 133,41</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,04</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,73</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-12,4%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-17,14; 5,51</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; 13,87</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-21,27; 11,48</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 20,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-51,84; 22,52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-25,94; 49,44</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-39,97; 29,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-26,93; 80,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
